--- a/biology/Virologie/Embecovirus/Embecovirus.xlsx
+++ b/biology/Virologie/Embecovirus/Embecovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Embecovirus est un sous-genre de coronavirus du genre Betacoronavirus[1]. Les virus de ce sous-genre, contrairement aux autres coronavirus, ont un gène d'hémagglutinine estérase (HE)[2]. Les virus du sous-genre étaient auparavant connus sous le nom de coronavirus du groupe 2a[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embecovirus est un sous-genre de coronavirus du genre Betacoronavirus. Les virus de ce sous-genre, contrairement aux autres coronavirus, ont un gène d'hémagglutinine estérase (HE). Les virus du sous-genre étaient auparavant connus sous le nom de coronavirus du groupe 2a,.
 La taxonomie ICTV de 2019 dénombre cinq espèces dans ce sous-genre. Ces coronavirus infectent rongeurs, bovins et humains.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virus de ce sous-genre, comme les autres coronavirus, ont une enveloppe lipidique bicouche dans laquelle sont ancrées les protéines structurales de la membrane (M), de l'enveloppe (E) et spiculaires (S)[5]. Contrairement à d'autres coronavirus, les virus de ce sous-genre ont également une protéine structurale en forme de pic plus courte supplémentaire appelée hémagglutinine estérase (HE)[2],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virus de ce sous-genre, comme les autres coronavirus, ont une enveloppe lipidique bicouche dans laquelle sont ancrées les protéines structurales de la membrane (M), de l'enveloppe (E) et spiculaires (S). Contrairement à d'autres coronavirus, les virus de ce sous-genre ont également une protéine structurale en forme de pic plus courte supplémentaire appelée hémagglutinine estérase (HE),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Recombinaison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recombinaison génétique peut se produire lorsque deux génomes viraux ou plus sont présents dans la même cellule hôte. Le bétacoronavirus (Beta-CoV HKU23) présente une diversité génétique dans la population de dromadaires[7]. Plusieurs évènements de recombinaison se sont en effet produit dans le passé entre des bêta-CoV étroitement apparentés du sous-genre Embecovirus, contribuant à cette diversité[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recombinaison génétique peut se produire lorsque deux génomes viraux ou plus sont présents dans la même cellule hôte. Le bétacoronavirus (Beta-CoV HKU23) présente une diversité génétique dans la population de dromadaires. Plusieurs évènements de recombinaison se sont en effet produit dans le passé entre des bêta-CoV étroitement apparentés du sous-genre Embecovirus, contribuant à cette diversité.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
